--- a/AgriProfitTaken.xlsx
+++ b/AgriProfitTaken.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="755" activeTab="4"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="755" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="APT" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="416" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="417" uniqueCount="90">
   <si>
     <t>AgriProfitTaken</t>
   </si>
@@ -363,6 +363,9 @@
   </si>
   <si>
     <t xml:space="preserve">    Risk Warning: The reports are only suitable for professional investors</t>
+  </si>
+  <si>
+    <t>Title of researches</t>
   </si>
 </sst>
 </file>
@@ -901,7 +904,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="87">
+  <cellXfs count="89">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1123,6 +1126,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1724,10 +1733,10 @@
       <c r="E10" s="26"/>
       <c r="F10" s="26"/>
       <c r="G10" s="26"/>
-      <c r="I10" s="77" t="s">
+      <c r="I10" s="79" t="s">
         <v>4</v>
       </c>
-      <c r="J10" s="77"/>
+      <c r="J10" s="79"/>
       <c r="K10" s="26"/>
       <c r="L10" s="26"/>
       <c r="M10" s="26"/>
@@ -3404,20 +3413,20 @@
       <c r="A13" s="1"/>
       <c r="B13" s="2"/>
       <c r="C13" s="26"/>
-      <c r="D13" s="78" t="s">
+      <c r="D13" s="80" t="s">
         <v>24</v>
       </c>
-      <c r="E13" s="78"/>
-      <c r="F13" s="78"/>
-      <c r="G13" s="78"/>
-      <c r="H13" s="78"/>
-      <c r="I13" s="78"/>
-      <c r="J13" s="78"/>
-      <c r="K13" s="78"/>
-      <c r="L13" s="78"/>
-      <c r="M13" s="78"/>
-      <c r="N13" s="78"/>
-      <c r="O13" s="78"/>
+      <c r="E13" s="80"/>
+      <c r="F13" s="80"/>
+      <c r="G13" s="80"/>
+      <c r="H13" s="80"/>
+      <c r="I13" s="80"/>
+      <c r="J13" s="80"/>
+      <c r="K13" s="80"/>
+      <c r="L13" s="80"/>
+      <c r="M13" s="80"/>
+      <c r="N13" s="80"/>
+      <c r="O13" s="80"/>
       <c r="P13" s="26"/>
       <c r="Q13" s="8"/>
       <c r="R13" s="3"/>
@@ -3426,18 +3435,18 @@
       <c r="A14" s="1"/>
       <c r="B14" s="2"/>
       <c r="C14" s="26"/>
-      <c r="D14" s="78"/>
-      <c r="E14" s="78"/>
-      <c r="F14" s="78"/>
-      <c r="G14" s="78"/>
-      <c r="H14" s="78"/>
-      <c r="I14" s="78"/>
-      <c r="J14" s="78"/>
-      <c r="K14" s="78"/>
-      <c r="L14" s="78"/>
-      <c r="M14" s="78"/>
-      <c r="N14" s="78"/>
-      <c r="O14" s="78"/>
+      <c r="D14" s="80"/>
+      <c r="E14" s="80"/>
+      <c r="F14" s="80"/>
+      <c r="G14" s="80"/>
+      <c r="H14" s="80"/>
+      <c r="I14" s="80"/>
+      <c r="J14" s="80"/>
+      <c r="K14" s="80"/>
+      <c r="L14" s="80"/>
+      <c r="M14" s="80"/>
+      <c r="N14" s="80"/>
+      <c r="O14" s="80"/>
       <c r="P14" s="26"/>
       <c r="Q14" s="2"/>
       <c r="R14" s="3"/>
@@ -3446,18 +3455,18 @@
       <c r="A15" s="1"/>
       <c r="B15" s="2"/>
       <c r="C15" s="26"/>
-      <c r="D15" s="78"/>
-      <c r="E15" s="78"/>
-      <c r="F15" s="78"/>
-      <c r="G15" s="78"/>
-      <c r="H15" s="78"/>
-      <c r="I15" s="78"/>
-      <c r="J15" s="78"/>
-      <c r="K15" s="78"/>
-      <c r="L15" s="78"/>
-      <c r="M15" s="78"/>
-      <c r="N15" s="78"/>
-      <c r="O15" s="78"/>
+      <c r="D15" s="80"/>
+      <c r="E15" s="80"/>
+      <c r="F15" s="80"/>
+      <c r="G15" s="80"/>
+      <c r="H15" s="80"/>
+      <c r="I15" s="80"/>
+      <c r="J15" s="80"/>
+      <c r="K15" s="80"/>
+      <c r="L15" s="80"/>
+      <c r="M15" s="80"/>
+      <c r="N15" s="80"/>
+      <c r="O15" s="80"/>
       <c r="P15" s="26"/>
       <c r="Q15" s="2"/>
       <c r="R15" s="3"/>
@@ -3466,18 +3475,18 @@
       <c r="A16" s="1"/>
       <c r="B16" s="2"/>
       <c r="C16" s="26"/>
-      <c r="D16" s="78"/>
-      <c r="E16" s="78"/>
-      <c r="F16" s="78"/>
-      <c r="G16" s="78"/>
-      <c r="H16" s="78"/>
-      <c r="I16" s="78"/>
-      <c r="J16" s="78"/>
-      <c r="K16" s="78"/>
-      <c r="L16" s="78"/>
-      <c r="M16" s="78"/>
-      <c r="N16" s="78"/>
-      <c r="O16" s="78"/>
+      <c r="D16" s="80"/>
+      <c r="E16" s="80"/>
+      <c r="F16" s="80"/>
+      <c r="G16" s="80"/>
+      <c r="H16" s="80"/>
+      <c r="I16" s="80"/>
+      <c r="J16" s="80"/>
+      <c r="K16" s="80"/>
+      <c r="L16" s="80"/>
+      <c r="M16" s="80"/>
+      <c r="N16" s="80"/>
+      <c r="O16" s="80"/>
       <c r="P16" s="26"/>
       <c r="Q16" s="2"/>
       <c r="R16" s="3"/>
@@ -3486,18 +3495,18 @@
       <c r="A17" s="1"/>
       <c r="B17" s="2"/>
       <c r="C17" s="26"/>
-      <c r="D17" s="78"/>
-      <c r="E17" s="78"/>
-      <c r="F17" s="78"/>
-      <c r="G17" s="78"/>
-      <c r="H17" s="78"/>
-      <c r="I17" s="78"/>
-      <c r="J17" s="78"/>
-      <c r="K17" s="78"/>
-      <c r="L17" s="78"/>
-      <c r="M17" s="78"/>
-      <c r="N17" s="78"/>
-      <c r="O17" s="78"/>
+      <c r="D17" s="80"/>
+      <c r="E17" s="80"/>
+      <c r="F17" s="80"/>
+      <c r="G17" s="80"/>
+      <c r="H17" s="80"/>
+      <c r="I17" s="80"/>
+      <c r="J17" s="80"/>
+      <c r="K17" s="80"/>
+      <c r="L17" s="80"/>
+      <c r="M17" s="80"/>
+      <c r="N17" s="80"/>
+      <c r="O17" s="80"/>
       <c r="P17" s="26"/>
       <c r="Q17" s="2"/>
       <c r="R17" s="3"/>
@@ -3506,18 +3515,18 @@
       <c r="A18" s="1"/>
       <c r="B18" s="2"/>
       <c r="C18" s="26"/>
-      <c r="D18" s="78"/>
-      <c r="E18" s="78"/>
-      <c r="F18" s="78"/>
-      <c r="G18" s="78"/>
-      <c r="H18" s="78"/>
-      <c r="I18" s="78"/>
-      <c r="J18" s="78"/>
-      <c r="K18" s="78"/>
-      <c r="L18" s="78"/>
-      <c r="M18" s="78"/>
-      <c r="N18" s="78"/>
-      <c r="O18" s="78"/>
+      <c r="D18" s="80"/>
+      <c r="E18" s="80"/>
+      <c r="F18" s="80"/>
+      <c r="G18" s="80"/>
+      <c r="H18" s="80"/>
+      <c r="I18" s="80"/>
+      <c r="J18" s="80"/>
+      <c r="K18" s="80"/>
+      <c r="L18" s="80"/>
+      <c r="M18" s="80"/>
+      <c r="N18" s="80"/>
+      <c r="O18" s="80"/>
       <c r="P18" s="26"/>
       <c r="Q18" s="2"/>
       <c r="R18" s="3"/>
@@ -3526,18 +3535,18 @@
       <c r="A19" s="1"/>
       <c r="B19" s="2"/>
       <c r="C19" s="26"/>
-      <c r="D19" s="78"/>
-      <c r="E19" s="78"/>
-      <c r="F19" s="78"/>
-      <c r="G19" s="78"/>
-      <c r="H19" s="78"/>
-      <c r="I19" s="78"/>
-      <c r="J19" s="78"/>
-      <c r="K19" s="78"/>
-      <c r="L19" s="78"/>
-      <c r="M19" s="78"/>
-      <c r="N19" s="78"/>
-      <c r="O19" s="78"/>
+      <c r="D19" s="80"/>
+      <c r="E19" s="80"/>
+      <c r="F19" s="80"/>
+      <c r="G19" s="80"/>
+      <c r="H19" s="80"/>
+      <c r="I19" s="80"/>
+      <c r="J19" s="80"/>
+      <c r="K19" s="80"/>
+      <c r="L19" s="80"/>
+      <c r="M19" s="80"/>
+      <c r="N19" s="80"/>
+      <c r="O19" s="80"/>
       <c r="P19" s="26"/>
       <c r="Q19" s="2"/>
       <c r="R19" s="3"/>
@@ -3546,18 +3555,18 @@
       <c r="A20" s="1"/>
       <c r="B20" s="2"/>
       <c r="C20" s="26"/>
-      <c r="D20" s="78"/>
-      <c r="E20" s="78"/>
-      <c r="F20" s="78"/>
-      <c r="G20" s="78"/>
-      <c r="H20" s="78"/>
-      <c r="I20" s="78"/>
-      <c r="J20" s="78"/>
-      <c r="K20" s="78"/>
-      <c r="L20" s="78"/>
-      <c r="M20" s="78"/>
-      <c r="N20" s="78"/>
-      <c r="O20" s="78"/>
+      <c r="D20" s="80"/>
+      <c r="E20" s="80"/>
+      <c r="F20" s="80"/>
+      <c r="G20" s="80"/>
+      <c r="H20" s="80"/>
+      <c r="I20" s="80"/>
+      <c r="J20" s="80"/>
+      <c r="K20" s="80"/>
+      <c r="L20" s="80"/>
+      <c r="M20" s="80"/>
+      <c r="N20" s="80"/>
+      <c r="O20" s="80"/>
       <c r="P20" s="26"/>
       <c r="Q20" s="2"/>
       <c r="R20" s="3"/>
@@ -3566,18 +3575,18 @@
       <c r="A21" s="1"/>
       <c r="B21" s="2"/>
       <c r="C21" s="26"/>
-      <c r="D21" s="78"/>
-      <c r="E21" s="78"/>
-      <c r="F21" s="78"/>
-      <c r="G21" s="78"/>
-      <c r="H21" s="78"/>
-      <c r="I21" s="78"/>
-      <c r="J21" s="78"/>
-      <c r="K21" s="78"/>
-      <c r="L21" s="78"/>
-      <c r="M21" s="78"/>
-      <c r="N21" s="78"/>
-      <c r="O21" s="78"/>
+      <c r="D21" s="80"/>
+      <c r="E21" s="80"/>
+      <c r="F21" s="80"/>
+      <c r="G21" s="80"/>
+      <c r="H21" s="80"/>
+      <c r="I21" s="80"/>
+      <c r="J21" s="80"/>
+      <c r="K21" s="80"/>
+      <c r="L21" s="80"/>
+      <c r="M21" s="80"/>
+      <c r="N21" s="80"/>
+      <c r="O21" s="80"/>
       <c r="P21" s="26"/>
       <c r="Q21" s="2"/>
       <c r="R21" s="3"/>
@@ -3586,18 +3595,18 @@
       <c r="A22" s="1"/>
       <c r="B22" s="2"/>
       <c r="C22" s="26"/>
-      <c r="D22" s="78"/>
-      <c r="E22" s="78"/>
-      <c r="F22" s="78"/>
-      <c r="G22" s="78"/>
-      <c r="H22" s="78"/>
-      <c r="I22" s="78"/>
-      <c r="J22" s="78"/>
-      <c r="K22" s="78"/>
-      <c r="L22" s="78"/>
-      <c r="M22" s="78"/>
-      <c r="N22" s="78"/>
-      <c r="O22" s="78"/>
+      <c r="D22" s="80"/>
+      <c r="E22" s="80"/>
+      <c r="F22" s="80"/>
+      <c r="G22" s="80"/>
+      <c r="H22" s="80"/>
+      <c r="I22" s="80"/>
+      <c r="J22" s="80"/>
+      <c r="K22" s="80"/>
+      <c r="L22" s="80"/>
+      <c r="M22" s="80"/>
+      <c r="N22" s="80"/>
+      <c r="O22" s="80"/>
       <c r="P22" s="26"/>
       <c r="Q22" s="2"/>
       <c r="R22" s="3"/>
@@ -7077,10 +7086,10 @@
         <v>49</v>
       </c>
       <c r="J15" s="26"/>
-      <c r="K15" s="79"/>
-      <c r="L15" s="79"/>
-      <c r="M15" s="79"/>
-      <c r="N15" s="79"/>
+      <c r="K15" s="81"/>
+      <c r="L15" s="81"/>
+      <c r="M15" s="81"/>
+      <c r="N15" s="81"/>
       <c r="O15" s="26"/>
       <c r="P15" s="26"/>
       <c r="Q15" s="2"/>
@@ -7091,26 +7100,26 @@
       <c r="B16" s="2"/>
       <c r="C16" s="26"/>
       <c r="D16" s="58"/>
-      <c r="E16" s="80" t="s">
+      <c r="E16" s="82" t="s">
         <v>47</v>
       </c>
-      <c r="F16" s="80"/>
-      <c r="G16" s="80" t="s">
+      <c r="F16" s="82"/>
+      <c r="G16" s="82" t="s">
         <v>48</v>
       </c>
-      <c r="H16" s="80"/>
-      <c r="I16" s="80" t="s">
+      <c r="H16" s="82"/>
+      <c r="I16" s="82" t="s">
         <v>68</v>
       </c>
-      <c r="J16" s="80"/>
-      <c r="K16" s="80" t="s">
+      <c r="J16" s="82"/>
+      <c r="K16" s="82" t="s">
         <v>69</v>
       </c>
-      <c r="L16" s="80"/>
-      <c r="M16" s="80" t="s">
+      <c r="L16" s="82"/>
+      <c r="M16" s="82" t="s">
         <v>70</v>
       </c>
-      <c r="N16" s="80"/>
+      <c r="N16" s="82"/>
       <c r="O16" s="58"/>
       <c r="P16" s="26"/>
       <c r="Q16" s="2"/>
@@ -8614,7 +8623,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView topLeftCell="A15" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="T36" sqref="T36"/>
     </sheetView>
   </sheetViews>
@@ -10162,10 +10171,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T96"/>
+  <dimension ref="A1:T98"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="R16" sqref="R16"/>
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="L31" sqref="L31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10456,11 +10465,11 @@
       <c r="B12" s="2"/>
       <c r="C12" s="56"/>
       <c r="D12" s="56"/>
-      <c r="E12" s="85" t="s">
+      <c r="E12" s="87" t="s">
         <v>42</v>
       </c>
-      <c r="F12" s="85"/>
-      <c r="G12" s="85"/>
+      <c r="F12" s="87"/>
+      <c r="G12" s="87"/>
       <c r="H12" s="56"/>
       <c r="I12" s="56"/>
       <c r="J12" s="56"/>
@@ -10478,9 +10487,9 @@
       <c r="B13" s="2"/>
       <c r="C13" s="56"/>
       <c r="D13" s="56"/>
-      <c r="E13" s="85"/>
-      <c r="F13" s="85"/>
-      <c r="G13" s="85"/>
+      <c r="E13" s="87"/>
+      <c r="F13" s="87"/>
+      <c r="G13" s="87"/>
       <c r="H13" s="56"/>
       <c r="I13" s="56"/>
       <c r="J13" s="56"/>
@@ -10498,9 +10507,9 @@
       <c r="B14" s="2"/>
       <c r="C14" s="56"/>
       <c r="D14" s="56"/>
-      <c r="E14" s="85"/>
-      <c r="F14" s="85"/>
-      <c r="G14" s="85"/>
+      <c r="E14" s="87"/>
+      <c r="F14" s="87"/>
+      <c r="G14" s="87"/>
       <c r="H14" s="56"/>
       <c r="I14" s="56"/>
       <c r="J14" s="56"/>
@@ -10559,14 +10568,14 @@
       <c r="B17" s="2"/>
       <c r="C17" s="56"/>
       <c r="D17" s="56"/>
-      <c r="E17" s="86" t="s">
+      <c r="E17" s="88" t="s">
         <v>88</v>
       </c>
-      <c r="F17" s="86"/>
-      <c r="G17" s="86"/>
-      <c r="H17" s="86"/>
-      <c r="I17" s="86"/>
-      <c r="J17" s="86"/>
+      <c r="F17" s="88"/>
+      <c r="G17" s="88"/>
+      <c r="H17" s="88"/>
+      <c r="I17" s="88"/>
+      <c r="J17" s="88"/>
       <c r="K17" s="56"/>
       <c r="L17" s="50" t="s">
         <v>29</v>
@@ -10583,12 +10592,12 @@
       <c r="B18" s="2"/>
       <c r="C18" s="56"/>
       <c r="D18" s="56"/>
-      <c r="E18" s="86"/>
-      <c r="F18" s="86"/>
-      <c r="G18" s="86"/>
-      <c r="H18" s="86"/>
-      <c r="I18" s="86"/>
-      <c r="J18" s="86"/>
+      <c r="E18" s="88"/>
+      <c r="F18" s="88"/>
+      <c r="G18" s="88"/>
+      <c r="H18" s="88"/>
+      <c r="I18" s="88"/>
+      <c r="J18" s="88"/>
       <c r="K18" s="56"/>
       <c r="L18" s="51"/>
       <c r="M18" s="51"/>
@@ -10603,12 +10612,12 @@
       <c r="B19" s="2"/>
       <c r="C19" s="56"/>
       <c r="D19" s="56"/>
-      <c r="E19" s="86"/>
-      <c r="F19" s="86"/>
-      <c r="G19" s="86"/>
-      <c r="H19" s="86"/>
-      <c r="I19" s="86"/>
-      <c r="J19" s="86"/>
+      <c r="E19" s="88"/>
+      <c r="F19" s="88"/>
+      <c r="G19" s="88"/>
+      <c r="H19" s="88"/>
+      <c r="I19" s="88"/>
+      <c r="J19" s="88"/>
       <c r="K19" s="56"/>
       <c r="L19" s="50" t="s">
         <v>30</v>
@@ -10625,12 +10634,12 @@
       <c r="B20" s="2"/>
       <c r="C20" s="56"/>
       <c r="D20" s="56"/>
-      <c r="E20" s="86"/>
-      <c r="F20" s="86"/>
-      <c r="G20" s="86"/>
-      <c r="H20" s="86"/>
-      <c r="I20" s="86"/>
-      <c r="J20" s="86"/>
+      <c r="E20" s="88"/>
+      <c r="F20" s="88"/>
+      <c r="G20" s="88"/>
+      <c r="H20" s="88"/>
+      <c r="I20" s="88"/>
+      <c r="J20" s="88"/>
       <c r="K20" s="56"/>
       <c r="L20" s="51"/>
       <c r="M20" s="51"/>
@@ -10645,12 +10654,12 @@
       <c r="B21" s="2"/>
       <c r="C21" s="56"/>
       <c r="D21" s="56"/>
-      <c r="E21" s="86"/>
-      <c r="F21" s="86"/>
-      <c r="G21" s="86"/>
-      <c r="H21" s="86"/>
-      <c r="I21" s="86"/>
-      <c r="J21" s="86"/>
+      <c r="E21" s="88"/>
+      <c r="F21" s="88"/>
+      <c r="G21" s="88"/>
+      <c r="H21" s="88"/>
+      <c r="I21" s="88"/>
+      <c r="J21" s="88"/>
       <c r="K21" s="56"/>
       <c r="L21" s="50" t="s">
         <v>31</v>
@@ -10667,12 +10676,12 @@
       <c r="B22" s="2"/>
       <c r="C22" s="56"/>
       <c r="D22" s="56"/>
-      <c r="E22" s="86"/>
-      <c r="F22" s="86"/>
-      <c r="G22" s="86"/>
-      <c r="H22" s="86"/>
-      <c r="I22" s="86"/>
-      <c r="J22" s="86"/>
+      <c r="E22" s="88"/>
+      <c r="F22" s="88"/>
+      <c r="G22" s="88"/>
+      <c r="H22" s="88"/>
+      <c r="I22" s="88"/>
+      <c r="J22" s="88"/>
       <c r="K22" s="56"/>
       <c r="L22" s="51"/>
       <c r="M22" s="51"/>
@@ -10687,12 +10696,12 @@
       <c r="B23" s="2"/>
       <c r="C23" s="56"/>
       <c r="D23" s="56"/>
-      <c r="E23" s="86"/>
-      <c r="F23" s="86"/>
-      <c r="G23" s="86"/>
-      <c r="H23" s="86"/>
-      <c r="I23" s="86"/>
-      <c r="J23" s="86"/>
+      <c r="E23" s="88"/>
+      <c r="F23" s="88"/>
+      <c r="G23" s="88"/>
+      <c r="H23" s="88"/>
+      <c r="I23" s="88"/>
+      <c r="J23" s="88"/>
       <c r="K23" s="56"/>
       <c r="L23" s="50" t="s">
         <v>32</v>
@@ -10842,10 +10851,10 @@
       <c r="I30" s="56"/>
       <c r="J30" s="56"/>
       <c r="K30" s="56"/>
-      <c r="L30" s="56"/>
-      <c r="M30" s="56"/>
-      <c r="N30" s="56"/>
-      <c r="O30" s="56"/>
+      <c r="L30" s="51"/>
+      <c r="M30" s="51"/>
+      <c r="N30" s="51"/>
+      <c r="O30" s="51"/>
       <c r="P30" s="56"/>
       <c r="Q30" s="2"/>
       <c r="R30" s="3"/>
@@ -10862,12 +10871,12 @@
       <c r="I31" s="56"/>
       <c r="J31" s="56"/>
       <c r="K31" s="56"/>
-      <c r="L31" s="52" t="s">
-        <v>35</v>
-      </c>
-      <c r="M31" s="56"/>
-      <c r="N31" s="56"/>
-      <c r="O31" s="56"/>
+      <c r="L31" s="50" t="s">
+        <v>89</v>
+      </c>
+      <c r="M31" s="48"/>
+      <c r="N31" s="48"/>
+      <c r="O31" s="78"/>
       <c r="P31" s="26"/>
       <c r="Q31" s="2"/>
       <c r="R31" s="3"/>
@@ -10875,63 +10884,63 @@
     <row r="32" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A32" s="1"/>
       <c r="B32" s="2"/>
-      <c r="C32" s="56"/>
-      <c r="D32" s="56"/>
-      <c r="E32" s="56"/>
-      <c r="F32" s="56"/>
-      <c r="G32" s="56"/>
-      <c r="H32" s="56"/>
-      <c r="I32" s="56"/>
-      <c r="J32" s="56"/>
-      <c r="K32" s="56"/>
-      <c r="L32" s="56"/>
-      <c r="M32" s="56"/>
-      <c r="N32" s="56"/>
-      <c r="O32" s="56"/>
-      <c r="P32" s="26"/>
-      <c r="Q32" s="8"/>
+      <c r="C32" s="77"/>
+      <c r="D32" s="77"/>
+      <c r="E32" s="77"/>
+      <c r="F32" s="77"/>
+      <c r="G32" s="77"/>
+      <c r="H32" s="77"/>
+      <c r="I32" s="77"/>
+      <c r="J32" s="77"/>
+      <c r="K32" s="77"/>
+      <c r="L32" s="77"/>
+      <c r="M32" s="77"/>
+      <c r="N32" s="77"/>
+      <c r="O32" s="77"/>
+      <c r="P32" s="77"/>
+      <c r="Q32" s="2"/>
       <c r="R32" s="3"/>
     </row>
     <row r="33" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A33" s="1"/>
       <c r="B33" s="2"/>
-      <c r="C33" s="56"/>
-      <c r="D33" s="56"/>
-      <c r="E33" s="56"/>
-      <c r="F33" s="56"/>
-      <c r="G33" s="56"/>
-      <c r="H33" s="56"/>
-      <c r="I33" s="56"/>
-      <c r="J33" s="56"/>
-      <c r="K33" s="56"/>
-      <c r="L33" s="56"/>
-      <c r="M33" s="56"/>
-      <c r="N33" s="56"/>
-      <c r="O33" s="56"/>
-      <c r="P33" s="26"/>
+      <c r="C33" s="77"/>
+      <c r="D33" s="77"/>
+      <c r="E33" s="77"/>
+      <c r="F33" s="77"/>
+      <c r="G33" s="77"/>
+      <c r="H33" s="77"/>
+      <c r="I33" s="77"/>
+      <c r="J33" s="77"/>
+      <c r="K33" s="77"/>
+      <c r="L33" s="52" t="s">
+        <v>35</v>
+      </c>
+      <c r="M33" s="77"/>
+      <c r="N33" s="77"/>
+      <c r="O33" s="77"/>
+      <c r="P33" s="77"/>
       <c r="Q33" s="2"/>
       <c r="R33" s="3"/>
     </row>
-    <row r="34" spans="1:18" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A34" s="1"/>
       <c r="B34" s="2"/>
       <c r="C34" s="56"/>
       <c r="D34" s="56"/>
-      <c r="E34" s="63" t="s">
-        <v>82</v>
-      </c>
+      <c r="E34" s="56"/>
       <c r="F34" s="56"/>
       <c r="G34" s="56"/>
       <c r="H34" s="56"/>
       <c r="I34" s="56"/>
       <c r="J34" s="56"/>
       <c r="K34" s="56"/>
-      <c r="L34" s="56"/>
-      <c r="M34" s="56"/>
-      <c r="N34" s="56"/>
-      <c r="O34" s="56"/>
+      <c r="L34" s="77"/>
+      <c r="M34" s="77"/>
+      <c r="N34" s="77"/>
+      <c r="O34" s="77"/>
       <c r="P34" s="26"/>
-      <c r="Q34" s="2"/>
+      <c r="Q34" s="8"/>
       <c r="R34" s="3"/>
     </row>
     <row r="35" spans="1:18" x14ac:dyDescent="0.25">
@@ -10949,40 +10958,39 @@
       <c r="L35" s="56"/>
       <c r="M35" s="56"/>
       <c r="N35" s="56"/>
+      <c r="O35" s="56"/>
       <c r="P35" s="26"/>
       <c r="Q35" s="2"/>
       <c r="R35" s="3"/>
     </row>
-    <row r="36" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:18" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A36" s="1"/>
       <c r="B36" s="2"/>
       <c r="C36" s="56"/>
       <c r="D36" s="56"/>
-      <c r="E36" s="56"/>
-      <c r="F36" s="44"/>
-      <c r="G36" s="56" t="s">
-        <v>64</v>
-      </c>
+      <c r="E36" s="63" t="s">
+        <v>82</v>
+      </c>
+      <c r="F36" s="56"/>
+      <c r="G36" s="56"/>
       <c r="H36" s="56"/>
       <c r="I36" s="56"/>
       <c r="J36" s="56"/>
       <c r="K36" s="56"/>
       <c r="L36" s="56"/>
-      <c r="M36" s="83" t="s">
-        <v>83</v>
-      </c>
-      <c r="N36" s="84"/>
+      <c r="M36" s="56"/>
+      <c r="N36" s="56"/>
       <c r="O36" s="56"/>
       <c r="P36" s="26"/>
       <c r="Q36" s="2"/>
       <c r="R36" s="3"/>
     </row>
-    <row r="37" spans="1:18" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A37" s="1"/>
       <c r="B37" s="2"/>
       <c r="C37" s="56"/>
       <c r="D37" s="56"/>
-      <c r="E37" s="63"/>
+      <c r="E37" s="56"/>
       <c r="F37" s="56"/>
       <c r="G37" s="56"/>
       <c r="H37" s="56"/>
@@ -10990,9 +10998,8 @@
       <c r="J37" s="56"/>
       <c r="K37" s="56"/>
       <c r="L37" s="56"/>
-      <c r="M37" s="70"/>
-      <c r="N37" s="29"/>
-      <c r="O37" s="56"/>
+      <c r="M37" s="56"/>
+      <c r="N37" s="56"/>
       <c r="P37" s="26"/>
       <c r="Q37" s="2"/>
       <c r="R37" s="3"/>
@@ -11003,28 +11010,30 @@
       <c r="C38" s="56"/>
       <c r="D38" s="56"/>
       <c r="E38" s="56"/>
-      <c r="F38" s="56"/>
-      <c r="G38" s="56"/>
+      <c r="F38" s="44"/>
+      <c r="G38" s="56" t="s">
+        <v>64</v>
+      </c>
       <c r="H38" s="56"/>
       <c r="I38" s="56"/>
       <c r="J38" s="56"/>
       <c r="K38" s="56"/>
       <c r="L38" s="56"/>
-      <c r="M38" s="81" t="s">
-        <v>66</v>
-      </c>
-      <c r="N38" s="82"/>
+      <c r="M38" s="85" t="s">
+        <v>83</v>
+      </c>
+      <c r="N38" s="86"/>
       <c r="O38" s="56"/>
       <c r="P38" s="26"/>
       <c r="Q38" s="2"/>
       <c r="R38" s="3"/>
     </row>
-    <row r="39" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:18" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A39" s="1"/>
       <c r="B39" s="2"/>
       <c r="C39" s="56"/>
       <c r="D39" s="56"/>
-      <c r="E39" s="56"/>
+      <c r="E39" s="63"/>
       <c r="F39" s="56"/>
       <c r="G39" s="56"/>
       <c r="H39" s="56"/>
@@ -11032,30 +11041,31 @@
       <c r="J39" s="56"/>
       <c r="K39" s="56"/>
       <c r="L39" s="56"/>
-      <c r="M39" s="32"/>
-      <c r="N39" s="34"/>
+      <c r="M39" s="70"/>
+      <c r="N39" s="29"/>
       <c r="O39" s="56"/>
       <c r="P39" s="26"/>
       <c r="Q39" s="2"/>
       <c r="R39" s="3"/>
     </row>
-    <row r="40" spans="1:18" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A40" s="1"/>
       <c r="B40" s="2"/>
       <c r="C40" s="56"/>
       <c r="D40" s="56"/>
-      <c r="E40" s="63"/>
-      <c r="F40" s="44" t="s">
-        <v>67</v>
-      </c>
+      <c r="E40" s="56"/>
+      <c r="F40" s="56"/>
       <c r="G40" s="56"/>
       <c r="H40" s="56"/>
       <c r="I40" s="56"/>
       <c r="J40" s="56"/>
       <c r="K40" s="56"/>
       <c r="L40" s="56"/>
-      <c r="M40" s="56"/>
-      <c r="N40" s="56"/>
+      <c r="M40" s="83" t="s">
+        <v>66</v>
+      </c>
+      <c r="N40" s="84"/>
+      <c r="O40" s="56"/>
       <c r="P40" s="26"/>
       <c r="Q40" s="2"/>
       <c r="R40" s="3"/>
@@ -11073,20 +11083,22 @@
       <c r="J41" s="56"/>
       <c r="K41" s="56"/>
       <c r="L41" s="56"/>
-      <c r="M41" s="56"/>
-      <c r="N41" s="56"/>
+      <c r="M41" s="32"/>
+      <c r="N41" s="34"/>
       <c r="O41" s="56"/>
       <c r="P41" s="26"/>
       <c r="Q41" s="2"/>
       <c r="R41" s="3"/>
     </row>
-    <row r="42" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:18" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A42" s="1"/>
       <c r="B42" s="2"/>
       <c r="C42" s="56"/>
       <c r="D42" s="56"/>
-      <c r="E42" s="56"/>
-      <c r="F42" s="56"/>
+      <c r="E42" s="63"/>
+      <c r="F42" s="44" t="s">
+        <v>67</v>
+      </c>
       <c r="G42" s="56"/>
       <c r="H42" s="56"/>
       <c r="I42" s="56"/>
@@ -11095,7 +11107,6 @@
       <c r="L42" s="56"/>
       <c r="M42" s="56"/>
       <c r="N42" s="56"/>
-      <c r="O42" s="56"/>
       <c r="P42" s="26"/>
       <c r="Q42" s="2"/>
       <c r="R42" s="3"/>
@@ -11160,14 +11171,12 @@
       <c r="Q45" s="2"/>
       <c r="R45" s="3"/>
     </row>
-    <row r="46" spans="1:18" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A46" s="1"/>
       <c r="B46" s="2"/>
       <c r="C46" s="56"/>
       <c r="D46" s="56"/>
-      <c r="E46" s="63" t="s">
-        <v>84</v>
-      </c>
+      <c r="E46" s="56"/>
       <c r="F46" s="56"/>
       <c r="G46" s="56"/>
       <c r="H46" s="56"/>
@@ -11202,36 +11211,34 @@
       <c r="Q47" s="2"/>
       <c r="R47" s="3"/>
     </row>
-    <row r="48" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:18" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A48" s="1"/>
       <c r="B48" s="2"/>
       <c r="C48" s="56"/>
       <c r="D48" s="56"/>
-      <c r="E48" s="56"/>
-      <c r="F48" s="44"/>
-      <c r="G48" s="56" t="s">
-        <v>64</v>
-      </c>
+      <c r="E48" s="63" t="s">
+        <v>84</v>
+      </c>
+      <c r="F48" s="56"/>
+      <c r="G48" s="56"/>
       <c r="H48" s="56"/>
       <c r="I48" s="56"/>
       <c r="J48" s="56"/>
       <c r="K48" s="56"/>
       <c r="L48" s="56"/>
-      <c r="M48" s="83" t="s">
-        <v>83</v>
-      </c>
-      <c r="N48" s="84"/>
+      <c r="M48" s="56"/>
+      <c r="N48" s="56"/>
       <c r="O48" s="56"/>
       <c r="P48" s="26"/>
       <c r="Q48" s="2"/>
       <c r="R48" s="3"/>
     </row>
-    <row r="49" spans="1:18" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A49" s="1"/>
       <c r="B49" s="2"/>
       <c r="C49" s="56"/>
       <c r="D49" s="56"/>
-      <c r="E49" s="63"/>
+      <c r="E49" s="56"/>
       <c r="F49" s="56"/>
       <c r="G49" s="56"/>
       <c r="H49" s="56"/>
@@ -11239,8 +11246,8 @@
       <c r="J49" s="56"/>
       <c r="K49" s="56"/>
       <c r="L49" s="56"/>
-      <c r="M49" s="70"/>
-      <c r="N49" s="29"/>
+      <c r="M49" s="56"/>
+      <c r="N49" s="56"/>
       <c r="O49" s="56"/>
       <c r="P49" s="26"/>
       <c r="Q49" s="2"/>
@@ -11252,28 +11259,30 @@
       <c r="C50" s="56"/>
       <c r="D50" s="56"/>
       <c r="E50" s="56"/>
-      <c r="F50" s="56"/>
-      <c r="G50" s="56"/>
+      <c r="F50" s="44"/>
+      <c r="G50" s="56" t="s">
+        <v>64</v>
+      </c>
       <c r="H50" s="56"/>
       <c r="I50" s="56"/>
       <c r="J50" s="56"/>
       <c r="K50" s="56"/>
       <c r="L50" s="56"/>
-      <c r="M50" s="81" t="s">
-        <v>66</v>
-      </c>
-      <c r="N50" s="82"/>
+      <c r="M50" s="85" t="s">
+        <v>83</v>
+      </c>
+      <c r="N50" s="86"/>
       <c r="O50" s="56"/>
       <c r="P50" s="26"/>
       <c r="Q50" s="2"/>
       <c r="R50" s="3"/>
     </row>
-    <row r="51" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:18" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A51" s="1"/>
       <c r="B51" s="2"/>
       <c r="C51" s="56"/>
       <c r="D51" s="56"/>
-      <c r="E51" s="56"/>
+      <c r="E51" s="63"/>
       <c r="F51" s="56"/>
       <c r="G51" s="56"/>
       <c r="H51" s="56"/>
@@ -11281,30 +11290,30 @@
       <c r="J51" s="56"/>
       <c r="K51" s="56"/>
       <c r="L51" s="56"/>
-      <c r="M51" s="32"/>
-      <c r="N51" s="34"/>
+      <c r="M51" s="70"/>
+      <c r="N51" s="29"/>
       <c r="O51" s="56"/>
       <c r="P51" s="26"/>
       <c r="Q51" s="2"/>
       <c r="R51" s="3"/>
     </row>
-    <row r="52" spans="1:18" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A52" s="1"/>
       <c r="B52" s="2"/>
       <c r="C52" s="56"/>
       <c r="D52" s="56"/>
-      <c r="E52" s="63"/>
-      <c r="F52" s="44" t="s">
-        <v>67</v>
-      </c>
+      <c r="E52" s="56"/>
+      <c r="F52" s="56"/>
       <c r="G52" s="56"/>
       <c r="H52" s="56"/>
       <c r="I52" s="56"/>
       <c r="J52" s="56"/>
       <c r="K52" s="56"/>
       <c r="L52" s="56"/>
-      <c r="M52" s="56"/>
-      <c r="N52" s="56"/>
+      <c r="M52" s="83" t="s">
+        <v>66</v>
+      </c>
+      <c r="N52" s="84"/>
       <c r="O52" s="56"/>
       <c r="P52" s="26"/>
       <c r="Q52" s="2"/>
@@ -11323,20 +11332,22 @@
       <c r="J53" s="56"/>
       <c r="K53" s="56"/>
       <c r="L53" s="56"/>
-      <c r="M53" s="56"/>
-      <c r="N53" s="56"/>
+      <c r="M53" s="32"/>
+      <c r="N53" s="34"/>
       <c r="O53" s="56"/>
       <c r="P53" s="26"/>
       <c r="Q53" s="2"/>
       <c r="R53" s="3"/>
     </row>
-    <row r="54" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:18" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A54" s="1"/>
       <c r="B54" s="2"/>
       <c r="C54" s="56"/>
       <c r="D54" s="56"/>
-      <c r="E54" s="56"/>
-      <c r="F54" s="56"/>
+      <c r="E54" s="63"/>
+      <c r="F54" s="44" t="s">
+        <v>67</v>
+      </c>
       <c r="G54" s="56"/>
       <c r="H54" s="56"/>
       <c r="I54" s="56"/>
@@ -11390,14 +11401,12 @@
       <c r="Q56" s="2"/>
       <c r="R56" s="3"/>
     </row>
-    <row r="57" spans="1:18" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A57" s="1"/>
       <c r="B57" s="2"/>
       <c r="C57" s="56"/>
       <c r="D57" s="56"/>
-      <c r="E57" s="63" t="s">
-        <v>82</v>
-      </c>
+      <c r="E57" s="56"/>
       <c r="F57" s="56"/>
       <c r="G57" s="56"/>
       <c r="H57" s="56"/>
@@ -11432,36 +11441,34 @@
       <c r="Q58" s="2"/>
       <c r="R58" s="3"/>
     </row>
-    <row r="59" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:18" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A59" s="1"/>
       <c r="B59" s="2"/>
       <c r="C59" s="56"/>
       <c r="D59" s="56"/>
-      <c r="E59" s="56"/>
-      <c r="F59" s="44"/>
-      <c r="G59" s="56" t="s">
-        <v>64</v>
-      </c>
+      <c r="E59" s="63" t="s">
+        <v>82</v>
+      </c>
+      <c r="F59" s="56"/>
+      <c r="G59" s="56"/>
       <c r="H59" s="56"/>
       <c r="I59" s="56"/>
       <c r="J59" s="56"/>
       <c r="K59" s="56"/>
       <c r="L59" s="56"/>
-      <c r="M59" s="83" t="s">
-        <v>83</v>
-      </c>
-      <c r="N59" s="84"/>
+      <c r="M59" s="56"/>
+      <c r="N59" s="56"/>
       <c r="O59" s="56"/>
       <c r="P59" s="26"/>
       <c r="Q59" s="2"/>
       <c r="R59" s="3"/>
     </row>
-    <row r="60" spans="1:18" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A60" s="1"/>
       <c r="B60" s="2"/>
       <c r="C60" s="56"/>
       <c r="D60" s="56"/>
-      <c r="E60" s="63"/>
+      <c r="E60" s="56"/>
       <c r="F60" s="56"/>
       <c r="G60" s="56"/>
       <c r="H60" s="56"/>
@@ -11469,8 +11476,8 @@
       <c r="J60" s="56"/>
       <c r="K60" s="56"/>
       <c r="L60" s="56"/>
-      <c r="M60" s="70"/>
-      <c r="N60" s="29"/>
+      <c r="M60" s="56"/>
+      <c r="N60" s="56"/>
       <c r="O60" s="56"/>
       <c r="P60" s="26"/>
       <c r="Q60" s="2"/>
@@ -11482,28 +11489,30 @@
       <c r="C61" s="56"/>
       <c r="D61" s="56"/>
       <c r="E61" s="56"/>
-      <c r="F61" s="56"/>
-      <c r="G61" s="56"/>
+      <c r="F61" s="44"/>
+      <c r="G61" s="56" t="s">
+        <v>64</v>
+      </c>
       <c r="H61" s="56"/>
       <c r="I61" s="56"/>
       <c r="J61" s="56"/>
       <c r="K61" s="56"/>
       <c r="L61" s="56"/>
-      <c r="M61" s="81" t="s">
-        <v>66</v>
-      </c>
-      <c r="N61" s="82"/>
+      <c r="M61" s="85" t="s">
+        <v>83</v>
+      </c>
+      <c r="N61" s="86"/>
       <c r="O61" s="56"/>
       <c r="P61" s="26"/>
       <c r="Q61" s="2"/>
       <c r="R61" s="3"/>
     </row>
-    <row r="62" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:18" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A62" s="1"/>
       <c r="B62" s="2"/>
       <c r="C62" s="56"/>
       <c r="D62" s="56"/>
-      <c r="E62" s="56"/>
+      <c r="E62" s="63"/>
       <c r="F62" s="56"/>
       <c r="G62" s="56"/>
       <c r="H62" s="56"/>
@@ -11511,30 +11520,30 @@
       <c r="J62" s="56"/>
       <c r="K62" s="56"/>
       <c r="L62" s="56"/>
-      <c r="M62" s="32"/>
-      <c r="N62" s="34"/>
+      <c r="M62" s="70"/>
+      <c r="N62" s="29"/>
       <c r="O62" s="56"/>
       <c r="P62" s="26"/>
       <c r="Q62" s="2"/>
       <c r="R62" s="3"/>
     </row>
-    <row r="63" spans="1:18" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A63" s="1"/>
       <c r="B63" s="2"/>
       <c r="C63" s="56"/>
       <c r="D63" s="56"/>
-      <c r="E63" s="63"/>
-      <c r="F63" s="44" t="s">
-        <v>67</v>
-      </c>
+      <c r="E63" s="56"/>
+      <c r="F63" s="56"/>
       <c r="G63" s="56"/>
       <c r="H63" s="56"/>
       <c r="I63" s="56"/>
       <c r="J63" s="56"/>
       <c r="K63" s="56"/>
       <c r="L63" s="56"/>
-      <c r="M63" s="56"/>
-      <c r="N63" s="56"/>
+      <c r="M63" s="83" t="s">
+        <v>66</v>
+      </c>
+      <c r="N63" s="84"/>
       <c r="O63" s="56"/>
       <c r="P63" s="26"/>
       <c r="Q63" s="2"/>
@@ -11553,20 +11562,22 @@
       <c r="J64" s="56"/>
       <c r="K64" s="56"/>
       <c r="L64" s="56"/>
-      <c r="M64" s="56"/>
-      <c r="N64" s="56"/>
+      <c r="M64" s="32"/>
+      <c r="N64" s="34"/>
       <c r="O64" s="56"/>
       <c r="P64" s="26"/>
       <c r="Q64" s="2"/>
       <c r="R64" s="3"/>
     </row>
-    <row r="65" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:18" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A65" s="1"/>
       <c r="B65" s="2"/>
       <c r="C65" s="56"/>
       <c r="D65" s="56"/>
-      <c r="E65" s="56"/>
-      <c r="F65" s="56"/>
+      <c r="E65" s="63"/>
+      <c r="F65" s="44" t="s">
+        <v>67</v>
+      </c>
       <c r="G65" s="56"/>
       <c r="H65" s="56"/>
       <c r="I65" s="56"/>
@@ -11620,14 +11631,12 @@
       <c r="Q67" s="2"/>
       <c r="R67" s="3"/>
     </row>
-    <row r="68" spans="1:18" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A68" s="1"/>
       <c r="B68" s="2"/>
       <c r="C68" s="56"/>
       <c r="D68" s="56"/>
-      <c r="E68" s="63" t="s">
-        <v>82</v>
-      </c>
+      <c r="E68" s="56"/>
       <c r="F68" s="56"/>
       <c r="G68" s="56"/>
       <c r="H68" s="56"/>
@@ -11662,36 +11671,34 @@
       <c r="Q69" s="2"/>
       <c r="R69" s="3"/>
     </row>
-    <row r="70" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:18" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A70" s="1"/>
       <c r="B70" s="2"/>
       <c r="C70" s="56"/>
       <c r="D70" s="56"/>
-      <c r="E70" s="56"/>
-      <c r="F70" s="44"/>
-      <c r="G70" s="56" t="s">
-        <v>64</v>
-      </c>
+      <c r="E70" s="63" t="s">
+        <v>82</v>
+      </c>
+      <c r="F70" s="56"/>
+      <c r="G70" s="56"/>
       <c r="H70" s="56"/>
       <c r="I70" s="56"/>
       <c r="J70" s="56"/>
       <c r="K70" s="56"/>
       <c r="L70" s="56"/>
-      <c r="M70" s="83" t="s">
-        <v>83</v>
-      </c>
-      <c r="N70" s="84"/>
+      <c r="M70" s="56"/>
+      <c r="N70" s="56"/>
       <c r="O70" s="56"/>
       <c r="P70" s="26"/>
       <c r="Q70" s="2"/>
       <c r="R70" s="3"/>
     </row>
-    <row r="71" spans="1:18" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A71" s="1"/>
       <c r="B71" s="2"/>
       <c r="C71" s="56"/>
       <c r="D71" s="56"/>
-      <c r="E71" s="63"/>
+      <c r="E71" s="56"/>
       <c r="F71" s="56"/>
       <c r="G71" s="56"/>
       <c r="H71" s="56"/>
@@ -11699,8 +11706,8 @@
       <c r="J71" s="56"/>
       <c r="K71" s="56"/>
       <c r="L71" s="56"/>
-      <c r="M71" s="70"/>
-      <c r="N71" s="29"/>
+      <c r="M71" s="56"/>
+      <c r="N71" s="56"/>
       <c r="O71" s="56"/>
       <c r="P71" s="26"/>
       <c r="Q71" s="2"/>
@@ -11712,28 +11719,30 @@
       <c r="C72" s="56"/>
       <c r="D72" s="56"/>
       <c r="E72" s="56"/>
-      <c r="F72" s="56"/>
-      <c r="G72" s="56"/>
+      <c r="F72" s="44"/>
+      <c r="G72" s="56" t="s">
+        <v>64</v>
+      </c>
       <c r="H72" s="56"/>
       <c r="I72" s="56"/>
       <c r="J72" s="56"/>
       <c r="K72" s="56"/>
       <c r="L72" s="56"/>
-      <c r="M72" s="81" t="s">
-        <v>66</v>
-      </c>
-      <c r="N72" s="82"/>
+      <c r="M72" s="85" t="s">
+        <v>83</v>
+      </c>
+      <c r="N72" s="86"/>
       <c r="O72" s="56"/>
       <c r="P72" s="26"/>
       <c r="Q72" s="2"/>
       <c r="R72" s="3"/>
     </row>
-    <row r="73" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:18" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A73" s="1"/>
       <c r="B73" s="2"/>
       <c r="C73" s="56"/>
       <c r="D73" s="56"/>
-      <c r="E73" s="56"/>
+      <c r="E73" s="63"/>
       <c r="F73" s="56"/>
       <c r="G73" s="56"/>
       <c r="H73" s="56"/>
@@ -11741,32 +11750,32 @@
       <c r="J73" s="56"/>
       <c r="K73" s="56"/>
       <c r="L73" s="56"/>
-      <c r="M73" s="32"/>
-      <c r="N73" s="34"/>
+      <c r="M73" s="70"/>
+      <c r="N73" s="29"/>
       <c r="O73" s="56"/>
-      <c r="P73" s="56"/>
+      <c r="P73" s="26"/>
       <c r="Q73" s="2"/>
       <c r="R73" s="3"/>
     </row>
-    <row r="74" spans="1:18" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A74" s="1"/>
       <c r="B74" s="2"/>
       <c r="C74" s="56"/>
       <c r="D74" s="56"/>
-      <c r="E74" s="63"/>
-      <c r="F74" s="44" t="s">
-        <v>67</v>
-      </c>
+      <c r="E74" s="56"/>
+      <c r="F74" s="56"/>
       <c r="G74" s="56"/>
       <c r="H74" s="56"/>
       <c r="I74" s="56"/>
       <c r="J74" s="56"/>
       <c r="K74" s="56"/>
       <c r="L74" s="56"/>
-      <c r="M74" s="56"/>
-      <c r="N74" s="56"/>
+      <c r="M74" s="83" t="s">
+        <v>66</v>
+      </c>
+      <c r="N74" s="84"/>
       <c r="O74" s="56"/>
-      <c r="P74" s="56"/>
+      <c r="P74" s="26"/>
       <c r="Q74" s="2"/>
       <c r="R74" s="3"/>
     </row>
@@ -11783,20 +11792,22 @@
       <c r="J75" s="56"/>
       <c r="K75" s="56"/>
       <c r="L75" s="56"/>
-      <c r="M75" s="56"/>
-      <c r="N75" s="56"/>
+      <c r="M75" s="32"/>
+      <c r="N75" s="34"/>
       <c r="O75" s="56"/>
       <c r="P75" s="56"/>
       <c r="Q75" s="2"/>
       <c r="R75" s="3"/>
     </row>
-    <row r="76" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:18" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A76" s="1"/>
       <c r="B76" s="2"/>
       <c r="C76" s="56"/>
       <c r="D76" s="56"/>
-      <c r="E76" s="56"/>
-      <c r="F76" s="56"/>
+      <c r="E76" s="63"/>
+      <c r="F76" s="44" t="s">
+        <v>67</v>
+      </c>
       <c r="G76" s="56"/>
       <c r="H76" s="56"/>
       <c r="I76" s="56"/>
@@ -11853,40 +11864,40 @@
     <row r="79" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A79" s="1"/>
       <c r="B79" s="2"/>
-      <c r="C79" s="26"/>
-      <c r="D79" s="26"/>
-      <c r="E79" s="26"/>
-      <c r="F79" s="26"/>
-      <c r="G79" s="26"/>
-      <c r="H79" s="26"/>
-      <c r="I79" s="26"/>
-      <c r="J79" s="26"/>
-      <c r="K79" s="26"/>
-      <c r="L79" s="26"/>
-      <c r="M79" s="26"/>
-      <c r="N79" s="26"/>
-      <c r="O79" s="26"/>
-      <c r="P79" s="26"/>
+      <c r="C79" s="56"/>
+      <c r="D79" s="56"/>
+      <c r="E79" s="56"/>
+      <c r="F79" s="56"/>
+      <c r="G79" s="56"/>
+      <c r="H79" s="56"/>
+      <c r="I79" s="56"/>
+      <c r="J79" s="56"/>
+      <c r="K79" s="56"/>
+      <c r="L79" s="56"/>
+      <c r="M79" s="56"/>
+      <c r="N79" s="56"/>
+      <c r="O79" s="56"/>
+      <c r="P79" s="56"/>
       <c r="Q79" s="2"/>
       <c r="R79" s="3"/>
     </row>
     <row r="80" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A80" s="1"/>
       <c r="B80" s="2"/>
-      <c r="C80" s="26"/>
-      <c r="D80" s="26"/>
-      <c r="E80" s="26"/>
-      <c r="F80" s="26"/>
-      <c r="G80" s="26"/>
-      <c r="H80" s="26"/>
-      <c r="I80" s="26"/>
-      <c r="J80" s="26"/>
-      <c r="K80" s="26"/>
-      <c r="L80" s="26"/>
-      <c r="M80" s="26"/>
-      <c r="N80" s="26"/>
-      <c r="O80" s="26"/>
-      <c r="P80" s="26"/>
+      <c r="C80" s="56"/>
+      <c r="D80" s="56"/>
+      <c r="E80" s="56"/>
+      <c r="F80" s="56"/>
+      <c r="G80" s="56"/>
+      <c r="H80" s="56"/>
+      <c r="I80" s="56"/>
+      <c r="J80" s="56"/>
+      <c r="K80" s="56"/>
+      <c r="L80" s="56"/>
+      <c r="M80" s="56"/>
+      <c r="N80" s="56"/>
+      <c r="O80" s="56"/>
+      <c r="P80" s="56"/>
       <c r="Q80" s="2"/>
       <c r="R80" s="3"/>
     </row>
@@ -11951,53 +11962,51 @@
       <c r="R83" s="3"/>
     </row>
     <row r="84" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A84" s="18"/>
-      <c r="B84" s="12"/>
-      <c r="C84" s="12"/>
-      <c r="D84" s="12"/>
-      <c r="E84" s="12"/>
-      <c r="F84" s="12"/>
-      <c r="G84" s="12"/>
-      <c r="H84" s="12"/>
-      <c r="I84" s="12"/>
-      <c r="J84" s="12"/>
-      <c r="K84" s="12"/>
-      <c r="L84" s="12"/>
-      <c r="M84" s="12"/>
-      <c r="N84" s="12"/>
-      <c r="O84" s="12"/>
-      <c r="P84" s="12"/>
-      <c r="Q84" s="12"/>
-      <c r="R84" s="19"/>
+      <c r="A84" s="1"/>
+      <c r="B84" s="2"/>
+      <c r="C84" s="26"/>
+      <c r="D84" s="26"/>
+      <c r="E84" s="26"/>
+      <c r="F84" s="26"/>
+      <c r="G84" s="26"/>
+      <c r="H84" s="26"/>
+      <c r="I84" s="26"/>
+      <c r="J84" s="26"/>
+      <c r="K84" s="26"/>
+      <c r="L84" s="26"/>
+      <c r="M84" s="26"/>
+      <c r="N84" s="26"/>
+      <c r="O84" s="26"/>
+      <c r="P84" s="26"/>
+      <c r="Q84" s="2"/>
+      <c r="R84" s="3"/>
     </row>
     <row r="85" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A85" s="18"/>
-      <c r="B85" s="12"/>
-      <c r="C85" s="12"/>
-      <c r="D85" s="13"/>
-      <c r="E85" s="14"/>
-      <c r="F85" s="12"/>
-      <c r="G85" s="12"/>
-      <c r="H85" s="12"/>
-      <c r="I85" s="12"/>
-      <c r="J85" s="12"/>
-      <c r="K85" s="12"/>
-      <c r="L85" s="12"/>
-      <c r="M85" s="12"/>
-      <c r="N85" s="12"/>
-      <c r="O85" s="12"/>
-      <c r="P85" s="12"/>
-      <c r="Q85" s="12"/>
-      <c r="R85" s="19"/>
+      <c r="A85" s="1"/>
+      <c r="B85" s="2"/>
+      <c r="C85" s="26"/>
+      <c r="D85" s="26"/>
+      <c r="E85" s="26"/>
+      <c r="F85" s="26"/>
+      <c r="G85" s="26"/>
+      <c r="H85" s="26"/>
+      <c r="I85" s="26"/>
+      <c r="J85" s="26"/>
+      <c r="K85" s="26"/>
+      <c r="L85" s="26"/>
+      <c r="M85" s="26"/>
+      <c r="N85" s="26"/>
+      <c r="O85" s="26"/>
+      <c r="P85" s="26"/>
+      <c r="Q85" s="2"/>
+      <c r="R85" s="3"/>
     </row>
     <row r="86" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A86" s="18"/>
       <c r="B86" s="12"/>
       <c r="C86" s="12"/>
-      <c r="D86" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="E86" s="14"/>
+      <c r="D86" s="12"/>
+      <c r="E86" s="12"/>
       <c r="F86" s="12"/>
       <c r="G86" s="12"/>
       <c r="H86" s="12"/>
@@ -12006,9 +12015,7 @@
       <c r="K86" s="12"/>
       <c r="L86" s="12"/>
       <c r="M86" s="12"/>
-      <c r="N86" s="15" t="s">
-        <v>0</v>
-      </c>
+      <c r="N86" s="12"/>
       <c r="O86" s="12"/>
       <c r="P86" s="12"/>
       <c r="Q86" s="12"/>
@@ -12028,7 +12035,7 @@
       <c r="K87" s="12"/>
       <c r="L87" s="12"/>
       <c r="M87" s="12"/>
-      <c r="N87" s="16"/>
+      <c r="N87" s="12"/>
       <c r="O87" s="12"/>
       <c r="P87" s="12"/>
       <c r="Q87" s="12"/>
@@ -12039,7 +12046,7 @@
       <c r="B88" s="12"/>
       <c r="C88" s="12"/>
       <c r="D88" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E88" s="14"/>
       <c r="F88" s="12"/>
@@ -12050,8 +12057,8 @@
       <c r="K88" s="12"/>
       <c r="L88" s="12"/>
       <c r="M88" s="12"/>
-      <c r="N88" s="16" t="s">
-        <v>16</v>
+      <c r="N88" s="15" t="s">
+        <v>0</v>
       </c>
       <c r="O88" s="12"/>
       <c r="P88" s="12"/>
@@ -12083,7 +12090,7 @@
       <c r="B90" s="12"/>
       <c r="C90" s="12"/>
       <c r="D90" s="13" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="E90" s="14"/>
       <c r="F90" s="12"/>
@@ -12095,7 +12102,7 @@
       <c r="L90" s="12"/>
       <c r="M90" s="12"/>
       <c r="N90" s="16" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="O90" s="12"/>
       <c r="P90" s="12"/>
@@ -12106,7 +12113,7 @@
       <c r="A91" s="18"/>
       <c r="B91" s="12"/>
       <c r="C91" s="12"/>
-      <c r="D91" s="14"/>
+      <c r="D91" s="13"/>
       <c r="E91" s="14"/>
       <c r="F91" s="12"/>
       <c r="G91" s="12"/>
@@ -12127,9 +12134,9 @@
       <c r="B92" s="12"/>
       <c r="C92" s="12"/>
       <c r="D92" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="E92" s="12"/>
+        <v>3</v>
+      </c>
+      <c r="E92" s="14"/>
       <c r="F92" s="12"/>
       <c r="G92" s="12"/>
       <c r="H92" s="12"/>
@@ -12139,7 +12146,7 @@
       <c r="L92" s="12"/>
       <c r="M92" s="12"/>
       <c r="N92" s="16" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="O92" s="12"/>
       <c r="P92" s="12"/>
@@ -12150,8 +12157,8 @@
       <c r="A93" s="18"/>
       <c r="B93" s="12"/>
       <c r="C93" s="12"/>
-      <c r="D93" s="12"/>
-      <c r="E93" s="12"/>
+      <c r="D93" s="14"/>
+      <c r="E93" s="14"/>
       <c r="F93" s="12"/>
       <c r="G93" s="12"/>
       <c r="H93" s="12"/>
@@ -12170,7 +12177,9 @@
       <c r="A94" s="18"/>
       <c r="B94" s="12"/>
       <c r="C94" s="12"/>
-      <c r="D94" s="12"/>
+      <c r="D94" s="13" t="s">
+        <v>1</v>
+      </c>
       <c r="E94" s="12"/>
       <c r="F94" s="12"/>
       <c r="G94" s="12"/>
@@ -12181,7 +12190,7 @@
       <c r="L94" s="12"/>
       <c r="M94" s="12"/>
       <c r="N94" s="16" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="O94" s="12"/>
       <c r="P94" s="12"/>
@@ -12202,44 +12211,86 @@
       <c r="K95" s="12"/>
       <c r="L95" s="12"/>
       <c r="M95" s="12"/>
-      <c r="N95" s="12"/>
+      <c r="N95" s="16"/>
       <c r="O95" s="12"/>
       <c r="P95" s="12"/>
       <c r="Q95" s="12"/>
       <c r="R95" s="19"/>
     </row>
-    <row r="96" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A96" s="20"/>
-      <c r="B96" s="17"/>
-      <c r="C96" s="17"/>
-      <c r="D96" s="17"/>
-      <c r="E96" s="17"/>
-      <c r="F96" s="17"/>
-      <c r="G96" s="17"/>
-      <c r="H96" s="17"/>
-      <c r="I96" s="17"/>
-      <c r="J96" s="17"/>
-      <c r="K96" s="17"/>
-      <c r="L96" s="17"/>
-      <c r="M96" s="17"/>
-      <c r="N96" s="17"/>
-      <c r="O96" s="17"/>
-      <c r="P96" s="17"/>
-      <c r="Q96" s="17"/>
-      <c r="R96" s="21"/>
+    <row r="96" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A96" s="18"/>
+      <c r="B96" s="12"/>
+      <c r="C96" s="12"/>
+      <c r="D96" s="12"/>
+      <c r="E96" s="12"/>
+      <c r="F96" s="12"/>
+      <c r="G96" s="12"/>
+      <c r="H96" s="12"/>
+      <c r="I96" s="12"/>
+      <c r="J96" s="12"/>
+      <c r="K96" s="12"/>
+      <c r="L96" s="12"/>
+      <c r="M96" s="12"/>
+      <c r="N96" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="O96" s="12"/>
+      <c r="P96" s="12"/>
+      <c r="Q96" s="12"/>
+      <c r="R96" s="19"/>
+    </row>
+    <row r="97" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A97" s="18"/>
+      <c r="B97" s="12"/>
+      <c r="C97" s="12"/>
+      <c r="D97" s="12"/>
+      <c r="E97" s="12"/>
+      <c r="F97" s="12"/>
+      <c r="G97" s="12"/>
+      <c r="H97" s="12"/>
+      <c r="I97" s="12"/>
+      <c r="J97" s="12"/>
+      <c r="K97" s="12"/>
+      <c r="L97" s="12"/>
+      <c r="M97" s="12"/>
+      <c r="N97" s="12"/>
+      <c r="O97" s="12"/>
+      <c r="P97" s="12"/>
+      <c r="Q97" s="12"/>
+      <c r="R97" s="19"/>
+    </row>
+    <row r="98" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A98" s="20"/>
+      <c r="B98" s="17"/>
+      <c r="C98" s="17"/>
+      <c r="D98" s="17"/>
+      <c r="E98" s="17"/>
+      <c r="F98" s="17"/>
+      <c r="G98" s="17"/>
+      <c r="H98" s="17"/>
+      <c r="I98" s="17"/>
+      <c r="J98" s="17"/>
+      <c r="K98" s="17"/>
+      <c r="L98" s="17"/>
+      <c r="M98" s="17"/>
+      <c r="N98" s="17"/>
+      <c r="O98" s="17"/>
+      <c r="P98" s="17"/>
+      <c r="Q98" s="17"/>
+      <c r="R98" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="10">
     <mergeCell ref="E12:G14"/>
     <mergeCell ref="E17:J23"/>
+    <mergeCell ref="M40:N40"/>
     <mergeCell ref="M38:N38"/>
-    <mergeCell ref="M36:N36"/>
-    <mergeCell ref="M48:N48"/>
     <mergeCell ref="M50:N50"/>
-    <mergeCell ref="M59:N59"/>
+    <mergeCell ref="M52:N52"/>
     <mergeCell ref="M61:N61"/>
-    <mergeCell ref="M70:N70"/>
+    <mergeCell ref="M63:N63"/>
     <mergeCell ref="M72:N72"/>
+    <mergeCell ref="M74:N74"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="T1" r:id="rId1"/>
@@ -13329,21 +13380,21 @@
       <c r="A49" s="1"/>
       <c r="B49" s="2"/>
       <c r="C49" s="56"/>
-      <c r="D49" s="78" t="s">
+      <c r="D49" s="80" t="s">
         <v>41</v>
       </c>
-      <c r="E49" s="78"/>
-      <c r="F49" s="78"/>
-      <c r="G49" s="78"/>
-      <c r="H49" s="78"/>
-      <c r="I49" s="78"/>
-      <c r="J49" s="78"/>
-      <c r="K49" s="78"/>
-      <c r="L49" s="78"/>
-      <c r="M49" s="78"/>
-      <c r="N49" s="78"/>
-      <c r="O49" s="78"/>
-      <c r="P49" s="78"/>
+      <c r="E49" s="80"/>
+      <c r="F49" s="80"/>
+      <c r="G49" s="80"/>
+      <c r="H49" s="80"/>
+      <c r="I49" s="80"/>
+      <c r="J49" s="80"/>
+      <c r="K49" s="80"/>
+      <c r="L49" s="80"/>
+      <c r="M49" s="80"/>
+      <c r="N49" s="80"/>
+      <c r="O49" s="80"/>
+      <c r="P49" s="80"/>
       <c r="Q49" s="2"/>
       <c r="R49" s="3"/>
     </row>
@@ -13351,19 +13402,19 @@
       <c r="A50" s="1"/>
       <c r="B50" s="2"/>
       <c r="C50" s="56"/>
-      <c r="D50" s="78"/>
-      <c r="E50" s="78"/>
-      <c r="F50" s="78"/>
-      <c r="G50" s="78"/>
-      <c r="H50" s="78"/>
-      <c r="I50" s="78"/>
-      <c r="J50" s="78"/>
-      <c r="K50" s="78"/>
-      <c r="L50" s="78"/>
-      <c r="M50" s="78"/>
-      <c r="N50" s="78"/>
-      <c r="O50" s="78"/>
-      <c r="P50" s="78"/>
+      <c r="D50" s="80"/>
+      <c r="E50" s="80"/>
+      <c r="F50" s="80"/>
+      <c r="G50" s="80"/>
+      <c r="H50" s="80"/>
+      <c r="I50" s="80"/>
+      <c r="J50" s="80"/>
+      <c r="K50" s="80"/>
+      <c r="L50" s="80"/>
+      <c r="M50" s="80"/>
+      <c r="N50" s="80"/>
+      <c r="O50" s="80"/>
+      <c r="P50" s="80"/>
       <c r="Q50" s="2"/>
       <c r="R50" s="3"/>
     </row>
@@ -13742,7 +13793,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T43"/>
   <sheetViews>
-    <sheetView topLeftCell="A21" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="M23" sqref="M23"/>
     </sheetView>
   </sheetViews>
@@ -14406,21 +14457,21 @@
       <c r="A28" s="1"/>
       <c r="B28" s="2"/>
       <c r="C28" s="26"/>
-      <c r="D28" s="78" t="s">
+      <c r="D28" s="80" t="s">
         <v>41</v>
       </c>
-      <c r="E28" s="78"/>
-      <c r="F28" s="78"/>
-      <c r="G28" s="78"/>
-      <c r="H28" s="78"/>
-      <c r="I28" s="78"/>
-      <c r="J28" s="78"/>
-      <c r="K28" s="78"/>
-      <c r="L28" s="78"/>
-      <c r="M28" s="78"/>
-      <c r="N28" s="78"/>
-      <c r="O28" s="78"/>
-      <c r="P28" s="78"/>
+      <c r="E28" s="80"/>
+      <c r="F28" s="80"/>
+      <c r="G28" s="80"/>
+      <c r="H28" s="80"/>
+      <c r="I28" s="80"/>
+      <c r="J28" s="80"/>
+      <c r="K28" s="80"/>
+      <c r="L28" s="80"/>
+      <c r="M28" s="80"/>
+      <c r="N28" s="80"/>
+      <c r="O28" s="80"/>
+      <c r="P28" s="80"/>
       <c r="Q28" s="2"/>
       <c r="R28" s="3"/>
     </row>
@@ -14428,19 +14479,19 @@
       <c r="A29" s="1"/>
       <c r="B29" s="2"/>
       <c r="C29" s="26"/>
-      <c r="D29" s="78"/>
-      <c r="E29" s="78"/>
-      <c r="F29" s="78"/>
-      <c r="G29" s="78"/>
-      <c r="H29" s="78"/>
-      <c r="I29" s="78"/>
-      <c r="J29" s="78"/>
-      <c r="K29" s="78"/>
-      <c r="L29" s="78"/>
-      <c r="M29" s="78"/>
-      <c r="N29" s="78"/>
-      <c r="O29" s="78"/>
-      <c r="P29" s="78"/>
+      <c r="D29" s="80"/>
+      <c r="E29" s="80"/>
+      <c r="F29" s="80"/>
+      <c r="G29" s="80"/>
+      <c r="H29" s="80"/>
+      <c r="I29" s="80"/>
+      <c r="J29" s="80"/>
+      <c r="K29" s="80"/>
+      <c r="L29" s="80"/>
+      <c r="M29" s="80"/>
+      <c r="N29" s="80"/>
+      <c r="O29" s="80"/>
+      <c r="P29" s="80"/>
       <c r="Q29" s="2"/>
       <c r="R29" s="3"/>
     </row>

--- a/AgriProfitTaken.xlsx
+++ b/AgriProfitTaken.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="755" activeTab="5"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="755" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="APT" sheetId="1" r:id="rId1"/>
@@ -3105,7 +3105,7 @@
   <dimension ref="A1:T84"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L30" sqref="L30"/>
+      <selection activeCell="D13" sqref="D13:O22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10173,7 +10173,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T98"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A9" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="L31" sqref="L31"/>
     </sheetView>
   </sheetViews>
@@ -12305,8 +12305,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V67"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H42" sqref="H42"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="L16" sqref="L16:L24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
